--- a/Results/Experimento3[04_16_2023-15_16].xlsx
+++ b/Results/Experimento3[04_16_2023-15_16].xlsx
@@ -1,37 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609790C9-F6CA-49EB-94AA-B7305EED5803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>val_acc_list</t>
+  </si>
+  <si>
+    <t>test_acc</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>[0, 0.4084, 0.4994, 0.5872, 0.5864, 0.6754, 0.739, 0.7854, 0.7906, 0.8, 0.785, 0.7712, 0.768, 0.734, 0.814, 0.8324, 0.8416, 0.847, 0.8144, 0.825, 0.7914, 0.82, 0.823, 0.8472, 0.8524, 0.851, 0.8286, 0.8056, 0.83, 0.8382, 0.8648, 0.8678, 0.8672, 0.8692, 0.8648, 0.8472, 0.8438, 0.8298, 0.8512, 0.8444, 0.8614, 0.8664, 0.841, 0.834, 0.7854, 0.8202, 0.8434, 0.8628, 0.8666, 0.8674, 0.8586]</t>
+  </si>
+  <si>
+    <t>85.78%</t>
+  </si>
+  <si>
+    <t>[1.5769924521446228, 1.3466027975082397, 1.1812654256820678, 1.1827547311782838, 0.9491319596767426, 0.7588534474372863, 0.6398344874382019, 0.6185854703187943, 0.6048549711704254, 0.6253724932670593, 0.6656121432781219, 0.6621027290821075, 0.8161894142627716, 0.5646640479564666, 0.5163850545883178, 0.49242706298828126, 0.48205022513866425, 0.5661640733480453, 0.5372871339321137, 0.6318489253520966, 0.5833916068077087, 0.5623352110385895, 0.49517402350902556, 0.47865024507045745, 0.5111647784709931, 0.569208100438118, 0.6846076071262359, 0.5685178250074386, 0.5339620143175126, 0.4550983339548111, 0.4751200705766678, 0.4740125358104706, 0.47972690463066103, 0.5061024457216263, 0.5506920099258423, 0.5686341464519501, 0.6426040530204773, 0.5564283013343811, 0.5875347524881362, 0.52262082695961, 0.5377848327159882, 0.6193570494651794, 0.5900044113397598, 0.750350296497345, 0.6620423138141632, 0.5673731893301011, 0.5145065873861313, 0.5161086827516556, 0.5250374108552933, 0.5471148818731308]</t>
+  </si>
+  <si>
+    <t>[0.08038699535766965, 0.09427390594987593, 0.09836355336497773, 0.0998484272939103, 0.06851255086883572, 0.02240629612388599, 0.017751121160069896, 0.01685225868413551, 0.035619441189629855, 0.07456324408351735, 0.09436262939779452, 0.09756954753679652, 0.07165120463769376, 0.029996318981322524, 0.020143326387348243, 0.014712743827837178, 0.04945029973203342, 0.09256382119982554, 0.09917451521254507, 0.09926269746244347, 0.05605185369012562, 0.0512054236022629, 0.03254952067404201, 0.029411534729744473, 0.055624543631620685, 0.06187064036747386, 0.07682568108743888, 0.07691957444199558, 0.020775150381160814, 0.019377789198953208, 0.013726040490035625, 0.012448324737597202, 0.022268397943801296, 0.041045611408755844, 0.060878555644578024, 0.07309488900894831, 0.05640793989497961, 0.04561218346935848, 0.0276086362243948, 0.022490987141817097, 0.05317350975256596, 0.08420331033289644, 0.09664345634530079, 0.09811724430111032, 0.08917986439868522, 0.030163125001471475, 0.022380675123507728, 0.018770331121167418, 0.06966051961762093, 0.09251606704071495]</t>
+  </si>
+  <si>
+    <t>85.86%</t>
+  </si>
+  <si>
+    <t>[0, 0.3262, 0.405, 0.4894, 0.5358, 0.6246, 0.6838, 0.7084, 0.6898, 0.776, 0.7572, 0.7532, 0.801, 0.812, 0.789, 0.7854, 0.805, 0.8112, 0.8282, 0.8038, 0.8104, 0.8382, 0.8134, 0.8352, 0.8322, 0.846, 0.8296, 0.8378, 0.8364, 0.8292, 0.8462, 0.8458, 0.8156, 0.853, 0.8268, 0.8084, 0.8394, 0.8514, 0.852, 0.8526, 0.8488, 0.8502, 0.8564, 0.8584, 0.8392, 0.862, 0.8546, 0.8398, 0.8498, 0.8598, 0.8508]</t>
+  </si>
+  <si>
+    <t>85.46%</t>
+  </si>
+  <si>
+    <t>[1.79077490568161, 1.6588287115097047, 1.3576974511146545, 1.352743136882782, 1.054382473230362, 0.9636323809623718, 0.8578703701496124, 0.9368818759918213, 0.677292424440384, 0.7257164776325226, 0.7603705883026123, 0.5826300799846649, 0.5532316982746124, 0.647838032245636, 0.6483158767223358, 0.607250714302063, 0.5711135387420654, 0.5177465915679932, 0.6322881758213044, 0.5840160369873046, 0.5223994016647339, 0.6047254920005798, 0.5494351953268051, 0.564695593714714, 0.5073840111494065, 0.5570739954710007, 0.5222312152385712, 0.584239274263382, 0.5955123484134675, 0.523046225309372, 0.5372651755809784, 0.6632964670658111, 0.4961428135633469, 0.6436531841754913, 0.7827297329902649, 0.5736054062843323, 0.5155219972133637, 0.5093730419874192, 0.5328630149364472, 0.5910004317760468, 0.5529730588197708, 0.5268682539463043, 0.5437039285898209, 0.6074410080909729, 0.4976700127124786, 0.551318284869194, 0.6376416444778442, 0.5851677119731903, 0.5437564134597779, 0.5354255855083465]</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>[0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
+  </si>
+  <si>
+    <t>85.08%</t>
+  </si>
+  <si>
+    <t>[0, 0.1194, 0.2738, 0.4394, 0.5142, 0.5628, 0.5998, 0.6402, 0.673, 0.6738, 0.7268, 0.7292, 0.7216, 0.7312, 0.7234, 0.7398, 0.7342, 0.7432, 0.7392, 0.7494, 0.7218, 0.7512, 0.7118, 0.753, 0.7452, 0.7594, 0.7404, 0.7638, 0.7464, 0.767, 0.7428, 0.77, 0.765, 0.7732, 0.7634, 0.7746, 0.7602, 0.7766, 0.7742, 0.78, 0.7578, 0.7766, 0.7784, 0.7836, 0.764, 0.7746, 0.7656, 0.7766, 0.7588, 0.7878, 0.7594]</t>
+  </si>
+  <si>
+    <t>74.44%</t>
+  </si>
+  <si>
+    <t>[2.7219879627227783, 1.9011173248291016, 1.508953046798706, 1.3573702692985534, 1.2231395959854126, 1.1268610119819642, 0.994213193655014, 0.9058610558509826, 0.9498744189739228, 0.7736987590789794, 0.7656501054763794, 0.7895268440246582, 0.748565262556076, 0.7841743707656861, 0.7520175337791443, 0.7513636887073517, 0.7256398856639862, 0.7489277720451355, 0.7164221048355103, 0.817556369304657, 0.7116564214229584, 0.8371442973613739, 0.698642098903656, 0.7478449404239654, 0.7001984536647796, 0.7924152255058289, 0.693110591173172, 0.7346268713474273, 0.6887911319732666, 0.7595502078533173, 0.6745545327663421, 0.7094920217990875, 0.6792012572288513, 0.6960868537425995, 0.6682163774967194, 0.711283266544342, 0.671324634552002, 0.6613314330577851, 0.6600579857826233, 0.7365062892436981, 0.682909882068634, 0.7044585824012757, 0.6615746200084687, 0.7531168520450592, 0.6871338725090027, 0.7247716963291169, 0.6794064104557037, 0.7792002975940704, 0.6508530855178833, 0.7522398591041565]</t>
+  </si>
+  <si>
+    <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
+  </si>
+  <si>
+    <t>75.94%</t>
+  </si>
+  <si>
+    <t>TA Decreciente (propuesta)</t>
+  </si>
+  <si>
+    <t>TA Ciclica Aleatoria Ext</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +135,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +459,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc_list</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>test_acc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[0, 0.4084, 0.4994, 0.5872, 0.5864, 0.6754, 0.739, 0.7854, 0.7906, 0.8, 0.785, 0.7712, 0.768, 0.734, 0.814, 0.8324, 0.8416, 0.847, 0.8144, 0.825, 0.7914, 0.82, 0.823, 0.8472, 0.8524, 0.851, 0.8286, 0.8056, 0.83, 0.8382, 0.8648, 0.8678, 0.8672, 0.8692, 0.8648, 0.8472, 0.8438, 0.8298, 0.8512, 0.8444, 0.8614, 0.8664, 0.841, 0.834, 0.7854, 0.8202, 0.8434, 0.8628, 0.8666, 0.8674, 0.8586]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>85.78%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[1.5769924521446228, 1.3466027975082397, 1.1812654256820678, 1.1827547311782838, 0.9491319596767426, 0.7588534474372863, 0.6398344874382019, 0.6185854703187943, 0.6048549711704254, 0.6253724932670593, 0.6656121432781219, 0.6621027290821075, 0.8161894142627716, 0.5646640479564666, 0.5163850545883178, 0.49242706298828126, 0.48205022513866425, 0.5661640733480453, 0.5372871339321137, 0.6318489253520966, 0.5833916068077087, 0.5623352110385895, 0.49517402350902556, 0.47865024507045745, 0.5111647784709931, 0.569208100438118, 0.6846076071262359, 0.5685178250074386, 0.5339620143175126, 0.4550983339548111, 0.4751200705766678, 0.4740125358104706, 0.47972690463066103, 0.5061024457216263, 0.5506920099258423, 0.5686341464519501, 0.6426040530204773, 0.5564283013343811, 0.5875347524881362, 0.52262082695961, 0.5377848327159882, 0.6193570494651794, 0.5900044113397598, 0.750350296497345, 0.6620423138141632, 0.5673731893301011, 0.5145065873861313, 0.5161086827516556, 0.5250374108552933, 0.5471148818731308]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>2469322.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Random Ciclico Extended</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.08038699535766965, 0.09427390594987593, 0.09836355336497773, 0.0998484272939103, 0.06851255086883572, 0.02240629612388599, 0.017751121160069896, 0.01685225868413551, 0.035619441189629855, 0.07456324408351735, 0.09436262939779452, 0.09756954753679652, 0.07165120463769376, 0.029996318981322524, 0.020143326387348243, 0.014712743827837178, 0.04945029973203342, 0.09256382119982554, 0.09917451521254507, 0.09926269746244347, 0.05605185369012562, 0.0512054236022629, 0.03254952067404201, 0.029411534729744473, 0.055624543631620685, 0.06187064036747386, 0.07682568108743888, 0.07691957444199558, 0.020775150381160814, 0.019377789198953208, 0.013726040490035625, 0.012448324737597202, 0.022268397943801296, 0.041045611408755844, 0.060878555644578024, 0.07309488900894831, 0.05640793989497961, 0.04561218346935848, 0.0276086362243948, 0.022490987141817097, 0.05317350975256596, 0.08420331033289644, 0.09664345634530079, 0.09811724430111032, 0.08917986439868522, 0.030163125001471475, 0.022380675123507728, 0.018770331121167418, 0.06966051961762093, 0.09251606704071495]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>85.86%</t>
-        </is>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[0, 0.3262, 0.405, 0.4894, 0.5358, 0.6246, 0.6838, 0.7084, 0.6898, 0.776, 0.7572, 0.7532, 0.801, 0.812, 0.789, 0.7854, 0.805, 0.8112, 0.8282, 0.8038, 0.8104, 0.8382, 0.8134, 0.8352, 0.8322, 0.846, 0.8296, 0.8378, 0.8364, 0.8292, 0.8462, 0.8458, 0.8156, 0.853, 0.8268, 0.8084, 0.8394, 0.8514, 0.852, 0.8526, 0.8488, 0.8502, 0.8564, 0.8584, 0.8392, 0.862, 0.8546, 0.8398, 0.8498, 0.8598, 0.8508]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>85.46%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[1.79077490568161, 1.6588287115097047, 1.3576974511146545, 1.352743136882782, 1.054382473230362, 0.9636323809623718, 0.8578703701496124, 0.9368818759918213, 0.677292424440384, 0.7257164776325226, 0.7603705883026123, 0.5826300799846649, 0.5532316982746124, 0.647838032245636, 0.6483158767223358, 0.607250714302063, 0.5711135387420654, 0.5177465915679932, 0.6322881758213044, 0.5840160369873046, 0.5223994016647339, 0.6047254920005798, 0.5494351953268051, 0.564695593714714, 0.5073840111494065, 0.5570739954710007, 0.5222312152385712, 0.584239274263382, 0.5955123484134675, 0.523046225309372, 0.5372651755809784, 0.6632964670658111, 0.4961428135633469, 0.6436531841754913, 0.7827297329902649, 0.5736054062843323, 0.5155219972133637, 0.5093730419874192, 0.5328630149364472, 0.5910004317760468, 0.5529730588197708, 0.5268682539463043, 0.5437039285898209, 0.6074410080909729, 0.4976700127124786, 0.551318284869194, 0.6376416444778442, 0.5851677119731903, 0.5437564134597779, 0.5354255855083465]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>2614938.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>85.08%</t>
-        </is>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[0, 0.1194, 0.2738, 0.4394, 0.5142, 0.5628, 0.5998, 0.6402, 0.673, 0.6738, 0.7268, 0.7292, 0.7216, 0.7312, 0.7234, 0.7398, 0.7342, 0.7432, 0.7392, 0.7494, 0.7218, 0.7512, 0.7118, 0.753, 0.7452, 0.7594, 0.7404, 0.7638, 0.7464, 0.767, 0.7428, 0.77, 0.765, 0.7732, 0.7634, 0.7746, 0.7602, 0.7766, 0.7742, 0.78, 0.7578, 0.7766, 0.7784, 0.7836, 0.764, 0.7746, 0.7656, 0.7766, 0.7588, 0.7878, 0.7594]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>74.44%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[2.7219879627227783, 1.9011173248291016, 1.508953046798706, 1.3573702692985534, 1.2231395959854126, 1.1268610119819642, 0.994213193655014, 0.9058610558509826, 0.9498744189739228, 0.7736987590789794, 0.7656501054763794, 0.7895268440246582, 0.748565262556076, 0.7841743707656861, 0.7520175337791443, 0.7513636887073517, 0.7256398856639862, 0.7489277720451355, 0.7164221048355103, 0.817556369304657, 0.7116564214229584, 0.8371442973613739, 0.698642098903656, 0.7478449404239654, 0.7001984536647796, 0.7924152255058289, 0.693110591173172, 0.7346268713474273, 0.6887911319732666, 0.7595502078533173, 0.6745545327663421, 0.7094920217990875, 0.6792012572288513, 0.6960868537425995, 0.6682163774967194, 0.711283266544342, 0.671324634552002, 0.6613314330577851, 0.6600579857826233, 0.7365062892436981, 0.682909882068634, 0.7044585824012757, 0.6615746200084687, 0.7531168520450592, 0.6871338725090027, 0.7247716963291169, 0.6794064104557037, 0.7792002975940704, 0.6508530855178833, 0.7522398591041565]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>2788522.25</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nuestro decreciente con Momentum</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>75.94%</t>
-        </is>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
